--- a/admin_uploads/course2.xlsx
+++ b/admin_uploads/course2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anubhav\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F499A-EFCD-426E-9E91-1532D45677BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF11EF9-1846-44CA-BD20-4ED1069A85E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{79EB0591-06AA-4E7B-A1AD-107BE335A843}"/>
   </bookViews>
@@ -25,40 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Instructor</t>
-  </si>
-  <si>
-    <t>CO309</t>
-  </si>
-  <si>
-    <t>Sanjib Kumar Deka</t>
-  </si>
-  <si>
-    <t>Operating System</t>
-  </si>
-  <si>
-    <t>C0312</t>
-  </si>
-  <si>
-    <t>DataBase System</t>
-  </si>
-  <si>
-    <t>Sarat Sharia</t>
-  </si>
-  <si>
-    <t>CourseID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>tuv</t>
+  </si>
+  <si>
+    <t>efg</t>
+  </si>
+  <si>
+    <t>efg@gmail.com</t>
+  </si>
+  <si>
+    <t>tuv@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +62,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,13 +92,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,45 +416,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7518AA8A-737C-4F74-877B-896D309F12DA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{92F13DBD-98F9-4928-B8CC-B5C19E0C6395}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{AF6D670E-BE0B-4786-A9B6-5B87EA29BE6B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>